--- a/biology/Zoologie/Craugastor_decoratus/Craugastor_decoratus.xlsx
+++ b/biology/Zoologie/Craugastor_decoratus/Craugastor_decoratus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Craugastor decoratus est une espèce d'amphibiens de la famille des Craugastoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Craugastor decoratus est une espèce d'amphibiens de la famille des Craugastoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1]. Elle se rencontre dans le sud du Tamaulipas, dans l'est du San Luis Potosí, dans le nord du Querétaro, dans le nord de l'Hidalgo, dans le centre du Veracruz et dans le Nord du Puebla.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre dans le sud du Tamaulipas, dans l'est du San Luis Potosí, dans le nord du Querétaro, dans le nord de l'Hidalgo, dans le centre du Veracruz et dans le Nord du Puebla.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 25 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 25 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Taylor, 1942 : New Caudata and Salientia from Mexico. University of Kansas Science Bulletin, vol. 28, no 14, p. 295-323 (texte intégral).</t>
         </is>
